--- a/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/_images.xlsx
+++ b/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/_images.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06264B0-BE03-43FF-93B7-BFFB2F8692C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89CABF-44EF-4580-9FCE-B84EF5021E46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -106,8 +106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="696516" y="152400"/>
-          <a:ext cx="6649640" cy="5248275"/>
+          <a:off x="689811" y="152400"/>
+          <a:ext cx="6589294" cy="5310137"/>
           <a:chOff x="53752" y="39717"/>
           <a:chExt cx="4506763" cy="2742327"/>
         </a:xfrm>
@@ -782,7 +782,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1037709" y="261325"/>
-            <a:ext cx="348172" cy="79069"/>
+            <a:ext cx="348172" cy="102076"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -890,13 +890,18 @@
           </a:lstStyle>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" sz="400">
+              <a:rPr kumimoji="1" lang="en-US" sz="700">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>import</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" sz="800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1226,7 +1231,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2081844" y="637332"/>
-            <a:ext cx="348172" cy="79069"/>
+            <a:ext cx="348172" cy="102076"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1334,13 +1339,18 @@
           </a:lstStyle>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" sz="400">
+              <a:rPr lang="en-US" sz="700">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>import</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1587,7 +1597,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1606,7 +1616,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1625,7 +1635,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1644,7 +1654,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1663,7 +1673,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1682,7 +1692,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1701,7 +1711,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1712,7 +1722,7 @@
               <a:t>          value="</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -1723,7 +1733,7 @@
               <a:t>${nablarch.codeNameTable.name}</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1742,7 +1752,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1761,7 +1771,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1780,7 +1790,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1799,7 +1809,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1809,6 +1819,14 @@
               </a:rPr>
               <a:t>  &lt;/component&gt;</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="600">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2246,6 +2264,22 @@
               </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US" sz="600">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:lnSpc>
+                <a:spcPts val="471"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="600">
                 <a:solidFill>
@@ -2329,7 +2363,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="918002" y="1203569"/>
-            <a:ext cx="719926" cy="105608"/>
+            <a:ext cx="871856" cy="123789"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2455,7 +2489,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2480,9 +2514,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr bwMode="auto">
-          <a:xfrm flipH="1">
-            <a:off x="1277965" y="1060017"/>
-            <a:ext cx="19152" cy="143552"/>
+          <a:xfrm>
+            <a:off x="1297118" y="1060017"/>
+            <a:ext cx="56812" cy="143552"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2642,7 +2676,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="491733" y="653713"/>
-            <a:ext cx="348172" cy="79069"/>
+            <a:ext cx="348172" cy="102076"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2750,13 +2784,18 @@
           </a:lstStyle>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" sz="400">
+              <a:rPr kumimoji="1" lang="en-US" sz="700">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>import</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" sz="400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3011,7 +3050,18 @@
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>  &lt;!-- Environment configuration file --&gt;</a:t>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>&lt;!-- Environment configuration file --&gt;</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3022,7 +3072,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3041,7 +3091,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3059,7 +3109,7 @@
               </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:endParaRPr sz="600">
+            <a:endParaRPr sz="700">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
@@ -3072,7 +3122,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3091,7 +3141,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3109,7 +3159,7 @@
               </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:endParaRPr sz="600">
+            <a:endParaRPr sz="700">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
@@ -3122,7 +3172,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3141,7 +3191,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3160,7 +3210,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3179,7 +3229,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3198,7 +3248,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3217,7 +3267,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3236,7 +3286,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3255,7 +3305,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3274,7 +3324,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3293,7 +3343,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3312,7 +3362,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3331,7 +3381,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3350,7 +3400,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3699,25 +3749,11 @@
               </a:lnSpc>
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="600">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>nablarch.zenkakuCharset.messageId=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="600">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>zenkakuError</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
@@ -3727,7 +3763,50 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>nablarch.zenkakuCharset.messageId=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>zenkakuError</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:lnSpc>
+                <a:spcPts val="471"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:lnSpc>
+                <a:spcPts val="471"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3738,7 +3817,7 @@
               <a:t>nablarch.codeNameTable.name=</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="600">
+              <a:rPr lang="en-US" sz="700">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -4548,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/_images.xlsx
+++ b/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/_images.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89CABF-44EF-4580-9FCE-B84EF5021E46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6304D-2C28-4E18-9A0B-DCDD81191CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,8 +106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="689811" y="152400"/>
-          <a:ext cx="6589294" cy="5310137"/>
+          <a:off x="691816" y="152400"/>
+          <a:ext cx="6607342" cy="5253990"/>
           <a:chOff x="53752" y="39717"/>
           <a:chExt cx="4506763" cy="2742327"/>
         </a:xfrm>
@@ -443,7 +443,27 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>(config)</a:t>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>properties</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1212,7 +1232,29 @@
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Environment configuration file (config)</a:t>
+              <a:t>Environment configuration file (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>properties</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3080,7 +3122,29 @@
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>  &lt;config-file file="common.config" /&gt;</a:t>
+              <a:t>  &lt;config-file file="common.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>properties</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>" /&gt;</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3099,7 +3163,29 @@
                 <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>  &lt;config-file file="env.config" /&gt;</a:t>
+              <a:t>  &lt;config-file file="env.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>properties</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>" /&gt;</a:t>
             </a:r>
           </a:p>
           <a:p>
